--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/L1cam-Cntn1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="H2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="I2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="J2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6764904680922222</v>
+        <v>0.1264251751233333</v>
       </c>
       <c r="R2">
-        <v>6.08841421283</v>
+        <v>1.13782657611</v>
       </c>
       <c r="S2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="T2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.297477</v>
       </c>
       <c r="I3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="J3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.03061335807</v>
       </c>
       <c r="S3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="T3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="H4">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="I4">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="J4">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.16401116594</v>
+        <v>0.2227616273566667</v>
       </c>
       <c r="R4">
-        <v>1.47610049346</v>
+        <v>2.00485464621</v>
       </c>
       <c r="S4">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="T4">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
     </row>
   </sheetData>
